--- a/tidyverse/Country.xlsx
+++ b/tidyverse/Country.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GHISLAINE KOSSONOU\Desktop\Module D OPEN\OPEN22-KG\tidyverse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0045D479-1840-436D-AE0A-9342531B935B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304AF58E-2700-4556-A8DE-F2A0B19D028D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{42709FA4-9F0E-4CB3-9D7D-F0E1722EF77D}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7270" xr2:uid="{42709FA4-9F0E-4CB3-9D7D-F0E1722EF77D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -46,13 +46,13 @@
     <t>Germany</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
     <t>Population</t>
   </si>
   <si>
     <t>Annee</t>
+  </si>
+  <si>
+    <t>Ville</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
   <dimension ref="D4:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -478,13 +478,13 @@
   <sheetData>
     <row r="4" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="4:6" x14ac:dyDescent="0.35">

--- a/tidyverse/Country.xlsx
+++ b/tidyverse/Country.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GHISLAINE KOSSONOU\Desktop\Module D OPEN\OPEN22-KG\tidyverse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304AF58E-2700-4556-A8DE-F2A0B19D028D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5BF404-62C3-49AF-84C8-EFFB4478206B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7270" xr2:uid="{42709FA4-9F0E-4CB3-9D7D-F0E1722EF77D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>Belgium</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>Ville</t>
+  </si>
+  <si>
+    <t>belgium</t>
+  </si>
+  <si>
+    <t>germany</t>
   </si>
 </sst>
 </file>
@@ -465,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA5A6DC-CC11-4DD8-95E0-1A703C264E93}">
-  <dimension ref="D4:F17"/>
+  <dimension ref="D4:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -476,7 +482,7 @@
     <col min="6" max="6" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
@@ -487,7 +493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D5" s="4" t="s">
         <v>0</v>
       </c>
@@ -497,8 +503,15 @@
       <c r="F5" s="5">
         <v>10045622</v>
       </c>
-    </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <f>F5+F6+F7+F8</f>
+        <v>40949605</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D6" s="6" t="s">
         <v>0</v>
       </c>
@@ -508,8 +521,15 @@
       <c r="F6" s="7">
         <v>10199787</v>
       </c>
-    </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <f xml:space="preserve"> F9+F10+F11+F12</f>
+        <v>237006558</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D7" s="4" t="s">
         <v>0</v>
       </c>
@@ -519,8 +539,15 @@
       <c r="F7" s="5">
         <v>10311970</v>
       </c>
-    </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <f xml:space="preserve"> F13+F14+F15+F16</f>
+        <v>327360504</v>
+      </c>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D8" s="6" t="s">
         <v>0</v>
       </c>
@@ -531,7 +558,7 @@
         <v>10392226</v>
       </c>
     </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D9" s="4" t="s">
         <v>1</v>
       </c>
@@ -542,7 +569,7 @@
         <v>57374179</v>
       </c>
     </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D10" s="6" t="s">
         <v>1</v>
       </c>
@@ -553,7 +580,7 @@
         <v>58623428</v>
       </c>
     </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D11" s="4" t="s">
         <v>1</v>
       </c>
@@ -564,7 +591,7 @@
         <v>59925035</v>
       </c>
     </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D12" s="6" t="s">
         <v>1</v>
       </c>
@@ -575,7 +602,7 @@
         <v>61083916</v>
       </c>
     </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D13" s="4" t="s">
         <v>2</v>
       </c>
@@ -586,7 +613,7 @@
         <v>80597764</v>
       </c>
     </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D14" s="6" t="s">
         <v>2</v>
       </c>
@@ -597,7 +624,7 @@
         <v>82011073</v>
       </c>
     </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D15" s="4" t="s">
         <v>2</v>
       </c>
@@ -608,7 +635,7 @@
         <v>82350671</v>
       </c>
     </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D16" s="6" t="s">
         <v>2</v>
       </c>
